--- a/public/excel/导入学生表.xlsx
+++ b/public/excel/导入学生表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simple4h/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3715364-E37F-694E-B229-18CF22180382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F86E318-52F7-4045-86E2-10F92FF93E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>年级*</t>
-  </si>
-  <si>
-    <t>班级*</t>
-  </si>
-  <si>
-    <t>学号</t>
   </si>
   <si>
     <t>身份证号*</t>
@@ -86,6 +80,14 @@
   </si>
   <si>
     <t>护照</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号*</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -278,20 +280,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +580,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -593,40 +595,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="84" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -645,46 +647,46 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="13"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -693,15 +695,15 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="13"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -710,15 +712,15 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="13"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -755,20 +757,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x539f__x578b_ xmlns="7ea92aa9-b9d9-496e-9f4f-04b987921789" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x539f__x578b_ xmlns="7ea92aa9-b9d9-496e-9f4f-04b987921789" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,13 +1005,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15CF804C-761B-44C7-968B-AB6709E3A246}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6ED2357-B737-4967-9D60-4B83C80D5A76}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6ED2357-B737-4967-9D60-4B83C80D5A76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15CF804C-761B-44C7-968B-AB6709E3A246}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
